--- a/Practica1/Programas/Resultados.xlsx
+++ b/Practica1/Programas/Resultados.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abigail\Desktop\ESCUELA\GitHub\Analisis-Algoritmos\Practica1\Programas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YaKerTaker\Google Drive\5° SEMESTRE\Analisis de algoritmos\Practicas\Practica1\Programas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D799AF0-1E51-46B7-8284-F5B1E17D2F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FBD9C679-06A6-429F-932D-C47BD6D10C09}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" firstSheet="1" activeTab="1" xr2:uid="{59AC1608-C1F1-441A-8A7C-A6D74107F1B5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7545" xr2:uid="{59AC1608-C1F1-441A-8A7C-A6D74107F1B5}"/>
   </bookViews>
   <sheets>
-    <sheet name="BS" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId2"/>
-    <sheet name="BSO" sheetId="2" r:id="rId3"/>
-    <sheet name="Insercion" sheetId="3" r:id="rId4"/>
-    <sheet name="Seleccion" sheetId="4" r:id="rId5"/>
-    <sheet name="Shell" sheetId="5" r:id="rId6"/>
-    <sheet name="ABB" sheetId="6" r:id="rId7"/>
-    <sheet name="Real-CPU" sheetId="7" r:id="rId8"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
+    <sheet name="Pols" sheetId="9" r:id="rId2"/>
+    <sheet name="BS" sheetId="1" r:id="rId3"/>
+    <sheet name="BSO" sheetId="2" r:id="rId4"/>
+    <sheet name="Insercion" sheetId="3" r:id="rId5"/>
+    <sheet name="Seleccion" sheetId="4" r:id="rId6"/>
+    <sheet name="Shell" sheetId="5" r:id="rId7"/>
+    <sheet name="ABB" sheetId="6" r:id="rId8"/>
+    <sheet name="Real-CPU" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
   <si>
     <t>Algoritmo BurbujaSimple</t>
   </si>
@@ -84,12 +85,372 @@
   <si>
     <t>BS</t>
   </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Grado 1</t>
+  </si>
+  <si>
+    <t>Grado 2</t>
+  </si>
+  <si>
+    <t>Grado 3</t>
+  </si>
+  <si>
+    <t>Grado 4</t>
+  </si>
+  <si>
+    <t>Grado 8</t>
+  </si>
+  <si>
+    <t>5.56×10^6</t>
+  </si>
+  <si>
+    <t>1.38×10^9</t>
+  </si>
+  <si>
+    <t>1.67×10^12</t>
+  </si>
+  <si>
+    <t>4.44×10^24</t>
+  </si>
+  <si>
+    <t>3.16×10^6</t>
+  </si>
+  <si>
+    <t>-2.46×10^6</t>
+  </si>
+  <si>
+    <t>-9.35*10^9</t>
+  </si>
+  <si>
+    <t>-1.23×10^19</t>
+  </si>
+  <si>
+    <t>2.22×10^7</t>
+  </si>
+  <si>
+    <t>1.109×10^10</t>
+  </si>
+  <si>
+    <t>2.69×10^13</t>
+  </si>
+  <si>
+    <t>1.14×10^27</t>
+  </si>
+  <si>
+    <t>1.26×10^7</t>
+  </si>
+  <si>
+    <t>-3.30×10^7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -1.52×10^11</t>
+  </si>
+  <si>
+    <t>-3.28×10^21</t>
+  </si>
+  <si>
+    <t>5.56×10^8</t>
+  </si>
+  <si>
+    <t>1.38×10^12</t>
+  </si>
+  <si>
+    <t>1.68×10^16</t>
+  </si>
+  <si>
+    <t>4.49×10^32</t>
+  </si>
+  <si>
+    <t>3.16×10^8</t>
+  </si>
+  <si>
+    <t>-5.46×10^9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -9.68×10^13</t>
+  </si>
+  <si>
+    <t>-1.32×10^27</t>
+  </si>
+  <si>
+    <t>2.22×10^9</t>
+  </si>
+  <si>
+    <t>1.11×10^13</t>
+  </si>
+  <si>
+    <t>2.69×10^17</t>
+  </si>
+  <si>
+    <t>1.15×10^35</t>
+  </si>
+  <si>
+    <t>1.06×10^6</t>
+  </si>
+  <si>
+    <t>1.26×10^9</t>
+  </si>
+  <si>
+    <t>-4.5×10^10</t>
+  </si>
+  <si>
+    <t>-1.55×10^15</t>
+  </si>
+  <si>
+    <t>-3.39×10^29</t>
+  </si>
+  <si>
+    <t>2.65×10^6</t>
+  </si>
+  <si>
+    <t>5.56×10^10</t>
+  </si>
+  <si>
+    <t>1.38×10^15</t>
+  </si>
+  <si>
+    <t>1.68×10^20</t>
+  </si>
+  <si>
+    <t>4.5×10^40</t>
+  </si>
+  <si>
+    <t>5.34×10^6</t>
+  </si>
+  <si>
+    <t>3.16×10^10</t>
+  </si>
+  <si>
+    <t>-5.76×10^12</t>
+  </si>
+  <si>
+    <t>-9.71×10^17</t>
+  </si>
+  <si>
+    <t>-1.32×10^35</t>
+  </si>
+  <si>
+    <t>7.588×10^6</t>
+  </si>
+  <si>
+    <t>9.20×10^7</t>
+  </si>
+  <si>
+    <t>8.54×10^10</t>
+  </si>
+  <si>
+    <t>1.22×10^24</t>
+  </si>
+  <si>
+    <t>-204.794</t>
+  </si>
+  <si>
+    <t>1219.23</t>
+  </si>
+  <si>
+    <t>3.73×10^9</t>
+  </si>
+  <si>
+    <t>3.0310^7</t>
+  </si>
+  <si>
+    <t>7.08×10^8</t>
+  </si>
+  <si>
+    <t>1.37×10^12</t>
+  </si>
+  <si>
+    <t>3.16×10^26</t>
+  </si>
+  <si>
+    <t>-3849.68</t>
+  </si>
+  <si>
+    <t>1.45×10^12</t>
+  </si>
+  <si>
+    <t>7.58×10^8</t>
+  </si>
+  <si>
+    <t>8.57×10^10</t>
+  </si>
+  <si>
+    <t>8.59×10^14</t>
+  </si>
+  <si>
+    <t>1.24×10^32</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -676642</t>
+  </si>
+  <si>
+    <t>2.01×10^7</t>
+  </si>
+  <si>
+    <t>7.75×10^17</t>
+  </si>
+  <si>
+    <t>3.03×10^9</t>
+  </si>
+  <si>
+    <t>6.82×10^11</t>
+  </si>
+  <si>
+    <t>1.37×10^16</t>
+  </si>
+  <si>
+    <t>3.18×10^34</t>
+  </si>
+  <si>
+    <t>-5.59×10^6</t>
+  </si>
+  <si>
+    <t>3.34×10^8</t>
+  </si>
+  <si>
+    <t>2.06×10^20</t>
+  </si>
+  <si>
+    <t>2.5×10^6</t>
+  </si>
+  <si>
+    <t>7.58×10^10</t>
+  </si>
+  <si>
+    <t>8.50×10^13</t>
+  </si>
+  <si>
+    <t>8.60×10^18</t>
+  </si>
+  <si>
+    <t>1.24×10^40</t>
+  </si>
+  <si>
+    <t>2.41054×10^6</t>
+  </si>
+  <si>
+    <t>-7.17×10^8</t>
+  </si>
+  <si>
+    <t>2.15×10^11</t>
+  </si>
+  <si>
+    <t>8.30×10^25</t>
+  </si>
+  <si>
+    <t>1.51×10^6</t>
+  </si>
+  <si>
+    <t>-6.55×10^6</t>
+  </si>
+  <si>
+    <t>2.95×10^9</t>
+  </si>
+  <si>
+    <t>1.97×10^18</t>
+  </si>
+  <si>
+    <t>6.05×10^6</t>
+  </si>
+  <si>
+    <t>-6.03×10^7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.89×10^10</t>
+  </si>
+  <si>
+    <t>5.31×10^20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.51×10^8</t>
+  </si>
+  <si>
+    <t>-8.33×10^9</t>
+  </si>
+  <si>
+    <t>3.14×10^13</t>
+  </si>
+  <si>
+    <t>2.15×10^26</t>
+  </si>
+  <si>
+    <t>1.13×10^6</t>
+  </si>
+  <si>
+    <t>6.04×10^8</t>
+  </si>
+  <si>
+    <t>-6.74×10^10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.04×10^14</t>
+  </si>
+  <si>
+    <t>5.53×10^28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.68×10^6</t>
+  </si>
+  <si>
+    <t>1.50×10^10</t>
+  </si>
+  <si>
+    <t>-8.50×10^12</t>
+  </si>
+  <si>
+    <t>3.16×10^17</t>
+  </si>
+  <si>
+    <t>2.17×10^34</t>
+  </si>
+  <si>
+    <t>1.15×10^6</t>
+  </si>
+  <si>
+    <t>-279.10</t>
+  </si>
+  <si>
+    <t>-3664.17</t>
+  </si>
+  <si>
+    <t>-584879</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4.79×10^6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6.11×10^8</t>
+  </si>
+  <si>
+    <t>6.80×10^7</t>
+  </si>
+  <si>
+    <t>1.11×10^9</t>
+  </si>
+  <si>
+    <t>7.10×10^11</t>
+  </si>
+  <si>
+    <t>1.009×10^8</t>
+  </si>
+  <si>
+    <t>4.19×10^10</t>
+  </si>
+  <si>
+    <t>2.34×10^16</t>
+  </si>
+  <si>
+    <t>2.347×10^16</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +500,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -218,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,6 +689,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,15 +821,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFCCFF99"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFABDFFF"/>
+      <color rgb="FFE2C5FF"/>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FF81CFFF"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFE2C5FF"/>
       <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
@@ -414,7 +879,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Burbuja Simple</a:t>
+              <a:t>COMPARACIÓN DE TIEMPOS REALES DE LOS ALGORITMOS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -459,11 +924,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BS!$B$1</c:f>
+              <c:f>Hoja1!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo Real (seg)</c:v>
+                  <c:v>BS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -494,71 +959,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BS!$A$2:$A$22</c:f>
+              <c:f>BS!$A$3:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1500</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -566,68 +1028,68 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BS!$B$2:$B$22</c:f>
+              <c:f>BS!$B$3:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.7908554077148397E-5</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7908554077148397E-5</c:v>
+                  <c:v>4.7707557678222602E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7707557678222602E-4</c:v>
+                  <c:v>1.0881423950195299E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0881423950195299E-3</c:v>
+                  <c:v>1.7259120941162101E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7259120941162101E-3</c:v>
+                  <c:v>7.2059631347656198E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2059631347656198E-3</c:v>
+                  <c:v>1.24430656433105E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.24430656433105E-2</c:v>
+                  <c:v>7.4679851531982394E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4679851531982394E-2</c:v>
+                  <c:v>0.15607619285583399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15607619285583399</c:v>
+                  <c:v>0.17156410217285101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.17156410217285101</c:v>
+                  <c:v>0.28875899314880299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.28875899314880299</c:v>
+                  <c:v>0.91809701919555597</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.91809701919555597</c:v>
+                  <c:v>1.5801908969879099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5801908969879099</c:v>
+                  <c:v>8.4525909423828107</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4525909423828107</c:v>
+                  <c:v>20.9790968894958</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20.9790968894958</c:v>
+                  <c:v>36.008720874786299</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36.008720874786299</c:v>
+                  <c:v>38.717591047286902</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.717591047286902</c:v>
+                  <c:v>34.325392961501997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34.325392961501997</c:v>
+                  <c:v>45.0631680488586</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45.0631680488586</c:v>
+                  <c:v>69.6153950691223</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69.6153950691223</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>125.895797014236</c:v>
                 </c:pt>
               </c:numCache>
@@ -636,7 +1098,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFC7-4CF0-A312-D19A707F9715}"/>
+              <c16:uniqueId val="{00000000-2110-4C53-9655-674FD518F318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,11 +1107,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BS!$C$1</c:f>
+              <c:f>Hoja1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo CPU (seg)</c:v>
+                  <c:v>BSO</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,71 +1142,68 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BS!$A$2:$A$22</c:f>
+              <c:f>BSO!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1500</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20000</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40000</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100000</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="20">
                   <c:v>200000</c:v>
                 </c:pt>
               </c:numCache>
@@ -752,69 +1211,69 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BS!$C$2:$C$22</c:f>
+              <c:f>BSO!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.5987625122070299E-5</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2000000000000099E-5</c:v>
+                  <c:v>5.4407119750976497E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7999999999999898E-4</c:v>
+                  <c:v>1.17111206054687E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9710063934326098E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.72799999999999E-3</c:v>
+                  <c:v>8.5661411285400304E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.712E-3</c:v>
+                  <c:v>1.04620456695556E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.83899999999999E-3</c:v>
+                  <c:v>6.9989919662475503E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4933999999999903E-2</c:v>
+                  <c:v>0.16584515571594199</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.5393000000000002E-2</c:v>
+                  <c:v>0.15677809715270899</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14565999999999901</c:v>
+                  <c:v>0.296716928482055</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24316599999999899</c:v>
+                  <c:v>0.61575102806091297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56628400000000001</c:v>
+                  <c:v>1.1212360858917201</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0464579999999899</c:v>
+                  <c:v>4.9665670394897399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6673280000000004</c:v>
+                  <c:v>11.5794739723205</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.331053000000001</c:v>
+                  <c:v>21.156749010085999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>18.579332999999899</c:v>
+                  <c:v>25.9921779632568</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.1030809999999</c:v>
+                  <c:v>29.475391864776601</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28.4905749999999</c:v>
+                  <c:v>44.484368085861199</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.596333000000001</c:v>
+                  <c:v>69.184934139251695</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63.610683000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>113.925601</c:v>
+                  <c:v>123.05017590522699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -822,7 +1281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BFC7-4CF0-A312-D19A707F9715}"/>
+              <c16:uniqueId val="{00000001-2110-4C53-9655-674FD518F318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -831,11 +1290,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BS!$D$1</c:f>
+              <c:f>Hoja1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo E/S (seg)</c:v>
+                  <c:v>Insercion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -866,141 +1325,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BS!$A$2:$A$22</c:f>
+              <c:f>Insercion!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1500</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90000</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100000</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BS!$D$2:$D$22</c:f>
+              <c:f>Insercion!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8.1062316894531199E-6</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.6212463378906201E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.74962997436523E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.09099999999999E-3</c:v>
+                  <c:v>3.07297706604003E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.8060922622680602E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0449999999999999E-3</c:v>
+                  <c:v>5.4053068161010701E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.48799999999999E-3</c:v>
+                  <c:v>0.10926699638366601</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8309999999999999E-3</c:v>
+                  <c:v>7.5917959213256794E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.27856898307800199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8899999999999901E-4</c:v>
+                  <c:v>1.9182980060577299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.4488148689270002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6599999999999897E-3</c:v>
+                  <c:v>5.7711091041564897</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.32059999999999E-2</c:v>
+                  <c:v>6.9844028949737504</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.80969999999999E-2</c:v>
+                  <c:v>27.772818088531402</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10750799999999899</c:v>
+                  <c:v>112.682210922241</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.6786999999999901E-2</c:v>
+                  <c:v>173.10957598686201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6709999999999903E-3</c:v>
+                  <c:v>249.995820999145</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.6249999999999903E-3</c:v>
+                  <c:v>607.27325296401898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7019999999999901E-3</c:v>
+                  <c:v>664.14997506141594</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7422999999999899E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.6438000000000001E-2</c:v>
+                  <c:v>2643.3141360282798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,7 +1464,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BFC7-4CF0-A312-D19A707F9715}"/>
+              <c16:uniqueId val="{00000002-2110-4C53-9655-674FD518F318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1017,11 +1473,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BS!$E$1</c:f>
+              <c:f>Hoja1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> % CPU/Wall</c:v>
+                  <c:v>Selección</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1052,141 +1508,138 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>BS!$A$2:$A$22</c:f>
+              <c:f>Seleccion!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="21"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>800</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1500</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10000</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60000</c:v>
+                  <c:v>400000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>80000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90000</c:v>
+                  <c:v>600000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100000</c:v>
+                  <c:v>800000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>120000</c:v>
+                  <c:v>900000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200000</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>BS!$E$2:$E$22</c:f>
+              <c:f>Seleccion!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5974044799804599E-5</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.792935849057</c:v>
+                  <c:v>3.6501884460449202E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.612989505247</c:v>
+                  <c:v>1.30319595336914E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.262613146362</c:v>
+                  <c:v>5.5720806121826102E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.12097405719</c:v>
+                  <c:v>3.84769439697265E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52.137374695606098</c:v>
+                  <c:v>8.0535173416137598E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.884202736156297</c:v>
+                  <c:v>0.19840908050537101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49.230146077961798</c:v>
+                  <c:v>0.12719702720642001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48.305253107781297</c:v>
+                  <c:v>0.488958120346069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>85.361097190630204</c:v>
+                  <c:v>2.9503719806671098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84.210710581987399</c:v>
+                  <c:v>5.8615469932556099</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62.405605074507001</c:v>
+                  <c:v>9.6510679721832204</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>67.059239615914805</c:v>
+                  <c:v>11.8269839286804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>55.550126961146198</c:v>
+                  <c:v>48.653803110122603</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.756960726114698</c:v>
+                  <c:v>204.373814821243</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.86554686278</c:v>
+                  <c:v>291.78920006752003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59.685407523873501</c:v>
+                  <c:v>418.24781298637299</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83.020753854038205</c:v>
+                  <c:v>744.58592295646599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90.102486704834305</c:v>
+                  <c:v>1088.3447821140201</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>91.413840195566806</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>90.505038057080796</c:v>
+                  <c:v>1190.1076059341401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1194,7 +1647,373 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BFC7-4CF0-A312-D19A707F9715}"/>
+              <c16:uniqueId val="{00000003-2110-4C53-9655-674FD518F318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Shell!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Shell!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.09672546386718E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2292137145995999E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9910335540771402E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.67681884765625E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5503864288330002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2873999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21025099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51499891281127896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73926806449890103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1975460052490201</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3951739999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6521611213684002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4420309066772399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3880689144134504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.303659915923999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.1929721832275</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.9113609790802</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.301371812820399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.200381040573099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.4741690158843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2110-4C53-9655-674FD518F318}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ABB!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6000000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9000000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ABB!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5974044799804599E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7189979553222599E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.01709365844726E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2950172424316402E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.54230594635009E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6169E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.591E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24960708618163999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.449668169021606</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.64911222457885698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.855236</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1565029621124201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6080920696258501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1173670291900599</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.9171857833862296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5202789306640607</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.206691026687601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.996384859085</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.8655440807342</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.7587230205535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2110-4C53-9655-674FD518F318}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1206,13 +2025,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472005584"/>
-        <c:axId val="472004928"/>
+        <c:axId val="471998696"/>
+        <c:axId val="471994432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472005584"/>
+        <c:axId val="471998696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1230,7 +2051,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1267,14 +2088,16 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472004928"/>
+        <c:crossAx val="471994432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472004928"/>
+        <c:axId val="471994432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1329,9 +2152,10 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472005584"/>
+        <c:crossAx val="471998696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1890,7 +2714,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>COMPARACIÓN ENTRE TODOS LOS ALGORITMOS</a:t>
+              <a:t>Burbuja Simple</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1935,11 +2759,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$1</c:f>
+              <c:f>BS!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BS</c:v>
+                  <c:v>Tiempo Real (seg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1970,10 +2794,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$36</c:f>
+              <c:f>BS!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2036,58 +2860,16 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$36</c:f>
+              <c:f>BS!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="1">
                   <c:v>3.7908554077148397E-5</c:v>
                 </c:pt>
@@ -2154,7 +2936,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2110-4C53-9655-674FD518F318}"/>
+              <c16:uniqueId val="{00000000-BFC7-4CF0-A312-D19A707F9715}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2163,11 +2945,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$1</c:f>
+              <c:f>BS!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BSO</c:v>
+                  <c:v>Tiempo CPU (seg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2198,10 +2980,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$36</c:f>
+              <c:f>BS!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2264,117 +3046,75 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$36</c:f>
+              <c:f>BS!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="1">
-                  <c:v>2.5987625122070299E-5</c:v>
+                  <c:v>4.2000000000000099E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4407119750976497E-4</c:v>
+                  <c:v>4.7999999999999898E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.17111206054687E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9710063934326098E-3</c:v>
+                  <c:v>1.72799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5661411285400304E-3</c:v>
+                  <c:v>2.712E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.04620456695556E-2</c:v>
+                  <c:v>5.83899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9989919662475503E-2</c:v>
+                  <c:v>3.4933999999999903E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16584515571594199</c:v>
+                  <c:v>7.5393000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15677809715270899</c:v>
+                  <c:v>0.14565999999999901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.296716928482055</c:v>
+                  <c:v>0.24316599999999899</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61575102806091297</c:v>
+                  <c:v>0.56628400000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1212360858917201</c:v>
+                  <c:v>1.0464579999999899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9665670394897399</c:v>
+                  <c:v>4.6673280000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.5794739723205</c:v>
+                  <c:v>10.331053000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.156749010085999</c:v>
+                  <c:v>18.579332999999899</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.9921779632568</c:v>
+                  <c:v>23.1030809999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.475391864776601</c:v>
+                  <c:v>28.4905749999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.484368085861199</c:v>
+                  <c:v>40.596333000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>69.184934139251695</c:v>
+                  <c:v>63.610683000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>123.05017590522699</c:v>
+                  <c:v>113.925601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,7 +3122,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2110-4C53-9655-674FD518F318}"/>
+              <c16:uniqueId val="{00000001-BFC7-4CF0-A312-D19A707F9715}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2391,11 +3131,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$1</c:f>
+              <c:f>BS!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insercion</c:v>
+                  <c:v>Tiempo E/S (seg)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2426,10 +3166,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$36</c:f>
+              <c:f>BS!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2492,105 +3232,75 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$36</c:f>
+              <c:f>BS!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="1">
-                  <c:v>8.1062316894531199E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6212463378906201E-4</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09099999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.74962997436523E-4</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0449999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.07297706604003E-3</c:v>
+                  <c:v>1.48799999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8309999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4053068161010701E-2</c:v>
+                  <c:v>7.8899999999999901E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5917959213256794E-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6599999999999897E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27856898307800199</c:v>
+                  <c:v>1.32059999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.80969999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10750799999999899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6786999999999901E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7711091041564897</c:v>
+                  <c:v>5.6709999999999903E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.9844028949737504</c:v>
+                  <c:v>6.6249999999999903E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.7019999999999901E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7422999999999899E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.772818088531402</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>112.682210922241</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>173.10957598686201</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>249.995820999145</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>607.27325296401898</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>664.14997506141594</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2643.3141360282798</c:v>
+                  <c:v>1.6438000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2598,7 +3308,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2110-4C53-9655-674FD518F318}"/>
+              <c16:uniqueId val="{00000002-BFC7-4CF0-A312-D19A707F9715}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2607,11 +3317,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$E$1</c:f>
+              <c:f>BS!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selección</c:v>
+                  <c:v> % CPU/Wall</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2642,10 +3352,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$36</c:f>
+              <c:f>BS!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2708,105 +3418,75 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$36</c:f>
+              <c:f>BS!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="1">
-                  <c:v>1.5974044799804599E-5</c:v>
+                  <c:v>110.792935849057</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6501884460449202E-4</c:v>
+                  <c:v>100.612989505247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.262613146362</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.30319595336914E-3</c:v>
+                  <c:v>100.12097405719</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.137374695606098</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5720806121826102E-3</c:v>
+                  <c:v>58.884202736156297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.230146077961798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.305253107781297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.0535173416137598E-2</c:v>
+                  <c:v>85.361097190630204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.12719702720642001</c:v>
+                  <c:v>84.210710581987399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.405605074507001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.488958120346069</c:v>
+                  <c:v>67.059239615914805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.550126961146198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.756960726114698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.86554686278</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.6510679721832204</c:v>
+                  <c:v>59.685407523873501</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.8269839286804</c:v>
+                  <c:v>83.020753854038205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90.102486704834305</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>91.413840195566806</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.653803110122603</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>204.373814821243</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>291.78920006752003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>418.24781298637299</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>744.58592295646599</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1088.3447821140201</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1190.1076059341401</c:v>
+                  <c:v>90.505038057080796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,448 +3494,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2110-4C53-9655-674FD518F318}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Shell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$F$2:$F$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="1">
-                  <c:v>1.09672546386718E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9910335540771402E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.2873999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21025099999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.51499891281127896</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.73926806449890103</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1975460052490201</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3951739999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.6521611213684002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.4420309066772399</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.3880689144134504</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.303659915923999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.1929721832275</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>15.9113609790802</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21.301371812820399</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22.200381040573099</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>26.4741690158843</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2110-4C53-9655-674FD518F318}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ABB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$2:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>150000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>400000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>500000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>600000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3000000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5000000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6000000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>8000000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9000000</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$G$2:$G$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="1">
-                  <c:v>1.5974044799804599E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7189979553222599E-4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2950172424316402E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.6169E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.591E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.24960708618163999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.449668169021606</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.64911222457885698</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.855236</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.1565029621124201</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6080920696258501</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.1173670291900599</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.9171857833862296</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8.5202789306640607</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.206691026687601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.996384859085</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.8655440807342</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>15.7587230205535</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2110-4C53-9655-674FD518F318}"/>
+              <c16:uniqueId val="{00000003-BFC7-4CF0-A312-D19A707F9715}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3267,11 +3506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471998696"/>
-        <c:axId val="471994432"/>
+        <c:axId val="472005584"/>
+        <c:axId val="472004928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471998696"/>
+        <c:axId val="472005584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3328,12 +3567,12 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471994432"/>
+        <c:crossAx val="472004928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471994432"/>
+        <c:axId val="472004928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3629,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471998696"/>
+        <c:crossAx val="472005584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14489,23 +14728,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>647698</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F480E59-354A-4677-914C-0EFABCE45C01}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F6CA9B-64E4-44FD-B091-55AC95AC147B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14530,23 +14769,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647698</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F6CA9B-64E4-44FD-B091-55AC95AC147B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F480E59-354A-4677-914C-0EFABCE45C01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15181,11 +15420,1364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329F2A73-44CB-4856-A3B8-6591A7642EAB}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
+        <v>0</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3.7908554077148397E-5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.5987625122070299E-5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8.1062316894531199E-6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.5974044799804599E-5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.09672546386718E-5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.5974044799804599E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>500</v>
+      </c>
+      <c r="B4" s="7">
+        <v>4.7707557678222602E-4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>5.4407119750976497E-4</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.6212463378906201E-4</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3.6501884460449202E-4</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>800</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.0881423950195299E-3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.17111206054687E-3</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.7259120941162101E-3</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1.9710063934326098E-3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>6.74962997436523E-4</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1.30319595336914E-3</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="27">
+        <v>1.7189979553222599E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B7" s="3">
+        <v>7.2059631347656198E-3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8.5661411285400304E-3</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1.24430656433105E-2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1.04620456695556E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3.07297706604003E-3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>5.5720806121826102E-3</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.4679851531982394E-2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.9989919662475503E-2</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>6000</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.15607619285583399</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.16584515571594199</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8000</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.17156410217285101</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.15677809715270899</v>
+      </c>
+      <c r="D11" s="36">
+        <v>5.4053068161010701E-2</v>
+      </c>
+      <c r="E11" s="36">
+        <v>8.0535173416137598E-2</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.28875899314880299</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.296716928482055</v>
+      </c>
+      <c r="D12" s="15">
+        <v>7.5917959213256794E-2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.12719702720642001</v>
+      </c>
+      <c r="F12" s="23">
+        <v>1.9910335540771402E-3</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2.2950172424316402E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>15000</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.91809701919555597</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.61575102806091297</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>20000</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1.5801908969879099</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1.1212360858917201</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0.27856898307800199</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0.488958120346069</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>40000</v>
+      </c>
+      <c r="B15" s="3">
+        <v>8.4525909423828107</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4.9665670394897399</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>60000</v>
+      </c>
+      <c r="B16" s="7">
+        <v>20.9790968894958</v>
+      </c>
+      <c r="C16" s="11">
+        <v>11.5794739723205</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>80000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>36.008720874786299</v>
+      </c>
+      <c r="C17" s="3">
+        <v>21.156749010085999</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>90000</v>
+      </c>
+      <c r="B18" s="7">
+        <v>38.717591047286902</v>
+      </c>
+      <c r="C18" s="11">
+        <v>25.9921779632568</v>
+      </c>
+      <c r="D18" s="15">
+        <v>5.7711091041564897</v>
+      </c>
+      <c r="E18" s="19">
+        <v>9.6510679721832204</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>34.325392961501997</v>
+      </c>
+      <c r="C19" s="3">
+        <v>29.475391864776601</v>
+      </c>
+      <c r="D19" s="3">
+        <v>6.9844028949737504</v>
+      </c>
+      <c r="E19" s="3">
+        <v>11.8269839286804</v>
+      </c>
+      <c r="F19" s="23">
+        <v>9.2873999999999998E-2</v>
+      </c>
+      <c r="G19" s="27">
+        <v>3.6169E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>120000</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45.0631680488586</v>
+      </c>
+      <c r="C20" s="11">
+        <v>44.484368085861199</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>150000</v>
+      </c>
+      <c r="B21" s="3">
+        <v>69.6153950691223</v>
+      </c>
+      <c r="C21" s="3">
+        <v>69.184934139251695</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>200000</v>
+      </c>
+      <c r="B22" s="7">
+        <v>125.895797014236</v>
+      </c>
+      <c r="C22" s="11">
+        <v>123.05017590522699</v>
+      </c>
+      <c r="D22" s="15">
+        <v>27.772818088531402</v>
+      </c>
+      <c r="E22" s="19">
+        <v>48.653803110122603</v>
+      </c>
+      <c r="F22" s="23">
+        <v>0.21025099999999999</v>
+      </c>
+      <c r="G22" s="27">
+        <v>8.591E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="33">
+        <v>400000</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="3">
+        <v>112.682210922241</v>
+      </c>
+      <c r="E23" s="3">
+        <v>204.373814821243</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.51499891281127896</v>
+      </c>
+      <c r="G23" s="36">
+        <v>0.24960708618163999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>500000</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="15">
+        <v>173.10957598686201</v>
+      </c>
+      <c r="E24" s="19">
+        <v>291.78920006752003</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
+        <v>600000</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="3">
+        <v>249.995820999145</v>
+      </c>
+      <c r="E25" s="3">
+        <v>418.24781298637299</v>
+      </c>
+      <c r="F25" s="29">
+        <v>0.73926806449890103</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.449668169021606</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>800000</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="15">
+        <v>607.27325296401898</v>
+      </c>
+      <c r="E26" s="19">
+        <v>744.58592295646599</v>
+      </c>
+      <c r="F26" s="23">
+        <v>1.1975460052490201</v>
+      </c>
+      <c r="G26" s="27">
+        <v>0.64911222457885698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="33">
+        <v>1000000</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="3">
+        <v>664.14997506141594</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1088.3447821140201</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1.3951739999999999</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0.855236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="15">
+        <v>2643.3141360282798</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1190.1076059341401</v>
+      </c>
+      <c r="F28" s="23">
+        <v>3.6521611213684002</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2.1565029621124201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="33">
+        <v>3000000</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="3">
+        <v>5.4420309066772399</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3.6080920696258501</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>4000000</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="23">
+        <v>8.3880689144134504</v>
+      </c>
+      <c r="G30" s="27">
+        <v>5.1173670291900599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="33">
+        <v>5000000</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="3">
+        <v>11.303659915923999</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6.9171857833862296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>6000000</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="23">
+        <v>13.1929721832275</v>
+      </c>
+      <c r="G32" s="27">
+        <v>8.5202789306640607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>7000000</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="3">
+        <v>15.9113609790802</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10.206691026687601</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>8000000</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="23">
+        <v>21.301371812820399</v>
+      </c>
+      <c r="G34" s="27">
+        <v>11.996384859085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="33">
+        <v>9000000</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="3">
+        <v>22.200381040573099</v>
+      </c>
+      <c r="G35" s="3">
+        <v>13.8655440807342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="23">
+        <v>26.4741690158843</v>
+      </c>
+      <c r="G36" s="27">
+        <v>15.7587230205535</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E093E2-5F1F-4CDF-8B34-7691177A9101}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>50000000</v>
+      </c>
+      <c r="B2" s="37">
+        <v>26529.7</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="38">
+        <v>50000000</v>
+      </c>
+      <c r="I2" s="37">
+        <v>53395.1</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
+        <v>100000000</v>
+      </c>
+      <c r="B3" s="47">
+        <v>53064.45</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="57">
+        <v>100000000</v>
+      </c>
+      <c r="I3" s="58">
+        <v>106844</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>500000000</v>
+      </c>
+      <c r="B4" s="37">
+        <v>265342.28000000003</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="38">
+        <v>500000000</v>
+      </c>
+      <c r="I4" s="37">
+        <v>534436</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>1000000000</v>
+      </c>
+      <c r="B5" s="47">
+        <v>530689.56999999995</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="57">
+        <v>1000000000</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
+        <v>5000000000</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="38">
+        <v>5000000000</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
+        <v>50000000</v>
+      </c>
+      <c r="B9" s="37">
+        <v>25039.7</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="41">
+        <v>50000000</v>
+      </c>
+      <c r="I9" s="40">
+        <v>126.09</v>
+      </c>
+      <c r="J9" s="40">
+        <v>325.37</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
+        <v>100000000</v>
+      </c>
+      <c r="B10" s="50">
+        <v>50085.599999999999</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="60">
+        <v>100000000</v>
+      </c>
+      <c r="I10" s="61">
+        <v>252.83</v>
+      </c>
+      <c r="J10" s="61">
+        <v>1131.28</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="63">
+        <v>24502.9</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>500000000</v>
+      </c>
+      <c r="B11" s="37">
+        <v>250452</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="41">
+        <v>500000000</v>
+      </c>
+      <c r="I11" s="40">
+        <v>1266.75</v>
+      </c>
+      <c r="J11" s="40">
+        <v>24873</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
+        <v>1000000000</v>
+      </c>
+      <c r="B12" s="50">
+        <v>500911</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="60">
+        <v>1000000000</v>
+      </c>
+      <c r="I12" s="61">
+        <v>2534.14</v>
+      </c>
+      <c r="J12" s="61">
+        <v>97786.2</v>
+      </c>
+      <c r="K12" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>5000000000</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="41">
+        <v>5000000000</v>
+      </c>
+      <c r="I13" s="40">
+        <v>12673.3</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
+        <v>50000000</v>
+      </c>
+      <c r="B16" s="37">
+        <v>56730.9</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="38">
+        <v>50000000</v>
+      </c>
+      <c r="I16" s="37">
+        <v>76.55</v>
+      </c>
+      <c r="J16" s="37">
+        <v>172.04</v>
+      </c>
+      <c r="K16" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="44">
+        <v>4412.7299999999996</v>
+      </c>
+      <c r="M16" s="44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="52">
+        <v>100000000</v>
+      </c>
+      <c r="B17" s="53">
+        <v>113570</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="65">
+        <v>100000000</v>
+      </c>
+      <c r="I17" s="66">
+        <v>153.47999999999999</v>
+      </c>
+      <c r="J17" s="66">
+        <v>574.41</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="68">
+        <v>89751.3</v>
+      </c>
+      <c r="M17" s="68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
+        <v>500000000</v>
+      </c>
+      <c r="B18" s="37">
+        <v>568286</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="38">
+        <v>500000000</v>
+      </c>
+      <c r="I18" s="37">
+        <v>768.89</v>
+      </c>
+      <c r="J18" s="37">
+        <v>12080.6</v>
+      </c>
+      <c r="K18" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="52">
+        <v>1000000000</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="65">
+        <v>1000000000</v>
+      </c>
+      <c r="I19" s="66">
+        <v>1538.16</v>
+      </c>
+      <c r="J19" s="66">
+        <v>47181.3</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="M19" s="68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>5000000000</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="38">
+        <v>5000000000</v>
+      </c>
+      <c r="I20" s="37">
+        <v>7692.28</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="M20" s="44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K9:L10 K11 K16:K18" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C3B1F5-48BE-42AE-9394-9C3FC1E16F5F}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15569,649 +17161,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329F2A73-44CB-4856-A3B8-6591A7642EAB}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="30">
-        <v>0</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>100</v>
-      </c>
-      <c r="B3" s="3">
-        <v>3.7908554077148397E-5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.5987625122070299E-5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>8.1062316894531199E-6</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.5974044799804599E-5</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1.09672546386718E-5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1.5974044799804599E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>500</v>
-      </c>
-      <c r="B4" s="7">
-        <v>4.7707557678222602E-4</v>
-      </c>
-      <c r="C4" s="11">
-        <v>5.4407119750976497E-4</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1.6212463378906201E-4</v>
-      </c>
-      <c r="E4" s="19">
-        <v>3.6501884460449202E-4</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>800</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.0881423950195299E-3</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.17111206054687E-3</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1.7259120941162101E-3</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1.9710063934326098E-3</v>
-      </c>
-      <c r="D6" s="15">
-        <v>6.74962997436523E-4</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1.30319595336914E-3</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="27">
-        <v>1.7189979553222599E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1500</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7.2059631347656198E-3</v>
-      </c>
-      <c r="C7" s="3">
-        <v>8.5661411285400304E-3</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="7">
-        <v>1.24430656433105E-2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1.04620456695556E-2</v>
-      </c>
-      <c r="D8" s="15">
-        <v>3.07297706604003E-3</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5.5720806121826102E-3</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>4000</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7.4679851531982394E-2</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6.9989919662475503E-2</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>6000</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.15607619285583399</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.16584515571594199</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8000</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.17156410217285101</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.15677809715270899</v>
-      </c>
-      <c r="D11" s="36">
-        <v>5.4053068161010701E-2</v>
-      </c>
-      <c r="E11" s="36">
-        <v>8.0535173416137598E-2</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10000</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.28875899314880299</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0.296716928482055</v>
-      </c>
-      <c r="D12" s="15">
-        <v>7.5917959213256794E-2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0.12719702720642001</v>
-      </c>
-      <c r="F12" s="23">
-        <v>1.9910335540771402E-3</v>
-      </c>
-      <c r="G12" s="27">
-        <v>2.2950172424316402E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>15000</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.91809701919555597</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.61575102806091297</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>20000</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1.5801908969879099</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1.1212360858917201</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0.27856898307800199</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0.488958120346069</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>40000</v>
-      </c>
-      <c r="B15" s="3">
-        <v>8.4525909423828107</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4.9665670394897399</v>
-      </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>60000</v>
-      </c>
-      <c r="B16" s="7">
-        <v>20.9790968894958</v>
-      </c>
-      <c r="C16" s="11">
-        <v>11.5794739723205</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>80000</v>
-      </c>
-      <c r="B17" s="3">
-        <v>36.008720874786299</v>
-      </c>
-      <c r="C17" s="3">
-        <v>21.156749010085999</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>90000</v>
-      </c>
-      <c r="B18" s="7">
-        <v>38.717591047286902</v>
-      </c>
-      <c r="C18" s="11">
-        <v>25.9921779632568</v>
-      </c>
-      <c r="D18" s="15">
-        <v>5.7711091041564897</v>
-      </c>
-      <c r="E18" s="19">
-        <v>9.6510679721832204</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>100000</v>
-      </c>
-      <c r="B19" s="3">
-        <v>34.325392961501997</v>
-      </c>
-      <c r="C19" s="3">
-        <v>29.475391864776601</v>
-      </c>
-      <c r="D19" s="3">
-        <v>6.9844028949737504</v>
-      </c>
-      <c r="E19" s="3">
-        <v>11.8269839286804</v>
-      </c>
-      <c r="F19" s="23">
-        <v>9.2873999999999998E-2</v>
-      </c>
-      <c r="G19" s="27">
-        <v>3.6169E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>120000</v>
-      </c>
-      <c r="B20" s="7">
-        <v>45.0631680488586</v>
-      </c>
-      <c r="C20" s="11">
-        <v>44.484368085861199</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>150000</v>
-      </c>
-      <c r="B21" s="3">
-        <v>69.6153950691223</v>
-      </c>
-      <c r="C21" s="3">
-        <v>69.184934139251695</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>200000</v>
-      </c>
-      <c r="B22" s="7">
-        <v>125.895797014236</v>
-      </c>
-      <c r="C22" s="11">
-        <v>123.05017590522699</v>
-      </c>
-      <c r="D22" s="15">
-        <v>27.772818088531402</v>
-      </c>
-      <c r="E22" s="19">
-        <v>48.653803110122603</v>
-      </c>
-      <c r="F22" s="23">
-        <v>0.21025099999999999</v>
-      </c>
-      <c r="G22" s="27">
-        <v>8.591E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
-        <v>400000</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="3">
-        <v>112.682210922241</v>
-      </c>
-      <c r="E23" s="3">
-        <v>204.373814821243</v>
-      </c>
-      <c r="F23" s="36">
-        <v>0.51499891281127896</v>
-      </c>
-      <c r="G23" s="36">
-        <v>0.24960708618163999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>500000</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="15">
-        <v>173.10957598686201</v>
-      </c>
-      <c r="E24" s="19">
-        <v>291.78920006752003</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
-        <v>600000</v>
-      </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="3">
-        <v>249.995820999145</v>
-      </c>
-      <c r="E25" s="3">
-        <v>418.24781298637299</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0.73926806449890103</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.449668169021606</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>800000</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="15">
-        <v>607.27325296401898</v>
-      </c>
-      <c r="E26" s="19">
-        <v>744.58592295646599</v>
-      </c>
-      <c r="F26" s="23">
-        <v>1.1975460052490201</v>
-      </c>
-      <c r="G26" s="27">
-        <v>0.64911222457885698</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33">
-        <v>1000000</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="3">
-        <v>664.14997506141594</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1088.3447821140201</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1.3951739999999999</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0.855236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>2000000</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="15">
-        <v>2643.3141360282798</v>
-      </c>
-      <c r="E28" s="19">
-        <v>1190.1076059341401</v>
-      </c>
-      <c r="F28" s="23">
-        <v>3.6521611213684002</v>
-      </c>
-      <c r="G28" s="27">
-        <v>2.1565029621124201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="33">
-        <v>3000000</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="3">
-        <v>5.4420309066772399</v>
-      </c>
-      <c r="G29" s="3">
-        <v>3.6080920696258501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>4000000</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="23">
-        <v>8.3880689144134504</v>
-      </c>
-      <c r="G30" s="27">
-        <v>5.1173670291900599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
-        <v>5000000</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="3">
-        <v>11.303659915923999</v>
-      </c>
-      <c r="G31" s="3">
-        <v>6.9171857833862296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>6000000</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="23">
-        <v>13.1929721832275</v>
-      </c>
-      <c r="G32" s="27">
-        <v>8.5202789306640607</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
-        <v>7000000</v>
-      </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="3">
-        <v>15.9113609790802</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10.206691026687601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>8000000</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="23">
-        <v>21.301371812820399</v>
-      </c>
-      <c r="G34" s="27">
-        <v>11.996384859085</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
-        <v>9000000</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="3">
-        <v>22.200381040573099</v>
-      </c>
-      <c r="G35" s="3">
-        <v>13.8655440807342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>10000000</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="23">
-        <v>26.4741690158843</v>
-      </c>
-      <c r="G36" s="27">
-        <v>15.7587230205535</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854E4C6D-4C41-48D6-A18B-57A04A785305}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B21"/>
     </sheetView>
   </sheetViews>
@@ -16586,11 +17540,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC8AA41-ADB4-4488-BCEE-1C962CBA2BC6}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -16966,11 +17920,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6675E1-EFD2-479E-86DF-CFCD6B668E6C}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -17346,7 +18300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F8E4C0-B7C5-46E7-935D-BAEBE8AB356D}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -17726,7 +18680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E507132-966B-41FE-A21D-02B0F564225F}">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -18106,7 +19060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF2C3AB-201F-44FE-B529-6383768F6C57}">
   <dimension ref="G2:O39"/>
   <sheetViews>
